--- a/GPU Timing/GPU Data.xlsx
+++ b/GPU Timing/GPU Data.xlsx
@@ -147,6 +147,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GPU Parallelization</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -314,6 +339,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Array Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -376,6 +457,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Total Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1022,16 +1159,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1319,7 +1456,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
